--- a/biology/Médecine/Forum_mondial_pour_la_recherche_en_santé/Forum_mondial_pour_la_recherche_en_santé.xlsx
+++ b/biology/Médecine/Forum_mondial_pour_la_recherche_en_santé/Forum_mondial_pour_la_recherche_en_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Forum_mondial_pour_la_recherche_en_sant%C3%A9</t>
+          <t>Forum_mondial_pour_la_recherche_en_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Forum mondial pour la recherche en santé  est une fondation internationale indépendante, basée à Genève, en Suisse, créée en 1998.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Forum_mondial_pour_la_recherche_en_sant%C3%A9</t>
+          <t>Forum_mondial_pour_la_recherche_en_santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le forum ambitionne de développer des solutions qui permettent d'améliorer la santé des populations pauvres et démunies[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le forum ambitionne de développer des solutions qui permettent d'améliorer la santé des populations pauvres et démunies.
 Sa création a résulté de l’identification de trois faits essentiels:
 L’amélioration de la santé n’est pas une simple retombée du développement, mais une de ses conditions préalables. L’investissement dans la santé est donc l’un des plus bénéfiques qu’un pays puisse envisager.
 L’amélioration de la santé demande la mise en œuvre effective des résultats de la recherche. Elle dépend aussi de manière cruciale de l'établissement de nouvelles connaissances dans toute une série de domaines.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Forum_mondial_pour_la_recherche_en_sant%C3%A9</t>
+          <t>Forum_mondial_pour_la_recherche_en_santé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Partenariats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Forum mondial pour la recherche en santé collabore étroitement avec de nombreuses organisations, notamment :
 L'Organisation mondiale de la santé (OMS).
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Forum_mondial_pour_la_recherche_en_sant%C3%A9</t>
+          <t>Forum_mondial_pour_la_recherche_en_santé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Domaine de recherches</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le Forum mondial pour la recherche en santé promeut la recherche dans les domaines suivants :
 Les sciences biomédicales.
